--- a/criterias/criteria_cold.xlsx
+++ b/criterias/criteria_cold.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NutCloudSync\code\pondo2\criteria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\NutCloudSync\code\pondo2\criterias\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -30,10 +30,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>全硅钢</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -42,34 +38,161 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>wid_max_oper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wid_max_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thk_min_oper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thk_min_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thk_max_oper</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thk_max_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部厚度命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD_THICK_CLG_AIMRATE_120</t>
+  </si>
+  <si>
+    <t>HEAD_THICK_CLG_AIMRATE_140</t>
+  </si>
+  <si>
+    <t>MAIN_THICK_CLG_AIMRATE_80</t>
+  </si>
+  <si>
+    <t>MAIN_THICK_CLG_AIMRATE_100</t>
+  </si>
+  <si>
+    <t>TAIL_THICK_CLG_AIMRATE_120</t>
+  </si>
+  <si>
+    <t>TAIL_THICK_CLG_AIMRATE_140</t>
+  </si>
+  <si>
+    <t>头部厚度命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主体段厚度命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾部厚度命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HEAD_WIDTH_MFG_AIMRATE_0_32</t>
+  </si>
+  <si>
+    <t>MAIN_WIDTH_MFG_AIMRATE_0_20</t>
+  </si>
+  <si>
+    <t>TAIL_WIDTH_MFG_AIMRATE_0_32</t>
+  </si>
+  <si>
+    <t>主体段宽度命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>头部宽度命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尾部宽度命中率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>W40绝对值均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_ABSMEAN</t>
+  </si>
+  <si>
+    <t>MAIN_WEDGE40_STABILITY</t>
+  </si>
+  <si>
+    <t>MAIN_C25-C40_MEAN</t>
+  </si>
+  <si>
+    <t>MAIN_C40-C100_MEAN</t>
+  </si>
+  <si>
+    <t>W40稳定性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边降C25-C40均值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_bins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate_levels</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E,D,C,B,A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,40,60,75,85,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5,10,15,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,75,80,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D,C,B,A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,7,13,15,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5,9,12,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>wid_min_val</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>wid_max_oper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wid_max_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thk_min_oper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thk_min_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thk_max_oper</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>thk_max_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>final_col_name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -78,130 +201,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部厚度命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAD_THICK_CLG_AIMRATE_120</t>
-  </si>
-  <si>
-    <t>HEAD_THICK_CLG_AIMRATE_140</t>
-  </si>
-  <si>
-    <t>MAIN_THICK_CLG_AIMRATE_80</t>
-  </si>
-  <si>
-    <t>MAIN_THICK_CLG_AIMRATE_100</t>
-  </si>
-  <si>
-    <t>TAIL_THICK_CLG_AIMRATE_120</t>
-  </si>
-  <si>
-    <t>TAIL_THICK_CLG_AIMRATE_140</t>
-  </si>
-  <si>
-    <t>头部厚度命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主体段厚度命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾部厚度命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>HEAD_WIDTH_MFG_AIMRATE_0_32</t>
-  </si>
-  <si>
-    <t>MAIN_WIDTH_MFG_AIMRATE_0_20</t>
-  </si>
-  <si>
-    <t>TAIL_WIDTH_MFG_AIMRATE_0_32</t>
-  </si>
-  <si>
-    <t>主体段宽度命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>头部宽度命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>尾部宽度命中率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W40绝对值均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MAIN_WEDGE40_ABSMEAN</t>
-  </si>
-  <si>
-    <t>MAIN_WEDGE40_STABILITY</t>
-  </si>
-  <si>
-    <t>MAIN_C25-C40_MEAN</t>
-  </si>
-  <si>
-    <t>MAIN_C40-C100_MEAN</t>
-  </si>
-  <si>
-    <t>W40稳定性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>边降C25-C40均值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate_bins</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate_levels</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>E,D,C,B,A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,40,60,75,85,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,5,10,15,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,75,80,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D,C,B,A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,7,13,15,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,B,C,D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,B,C,D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,5,9,12,100</t>
+    <t>冷轧基料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -560,333 +560,333 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" t="s">
-        <v>10</v>
-      </c>
       <c r="J1" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" t="s">
         <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
       </c>
       <c r="G2">
         <v>1.2</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I2">
         <v>2.2999999999999998</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
       </c>
       <c r="G3">
         <v>2.2999999999999998</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I3">
         <v>2.8</v>
       </c>
       <c r="J3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
         <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>2</v>
       </c>
       <c r="G4">
         <v>1.2</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I4">
         <v>2.2999999999999998</v>
       </c>
       <c r="J4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
         <v>1</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
       </c>
       <c r="G5">
         <v>2.2999999999999998</v>
       </c>
       <c r="H5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>2.8</v>
       </c>
       <c r="J5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" t="s">
         <v>18</v>
       </c>
-      <c r="K5" t="s">
-        <v>22</v>
-      </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" t="s">
         <v>1</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
       </c>
       <c r="G6">
         <v>1.2</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I6">
         <v>2.2999999999999998</v>
       </c>
       <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
         <v>19</v>
       </c>
-      <c r="K6" t="s">
-        <v>23</v>
-      </c>
       <c r="L6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" t="s">
         <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>2</v>
       </c>
       <c r="G7">
         <v>2.2999999999999998</v>
       </c>
       <c r="H7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="I7">
         <v>2.8</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" t="s">
         <v>24</v>
       </c>
-      <c r="K8" t="s">
-        <v>28</v>
-      </c>
       <c r="L8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s">
+        <v>37</v>
+      </c>
+      <c r="M11" t="s">
         <v>41</v>
-      </c>
-      <c r="M11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J12" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="K13" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L13" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M13" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>47</v>
       </c>
       <c r="J14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="M14" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/criterias/criteria_cold.xlsx
+++ b/criterias/criteria_cold.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="50">
   <si>
     <t>grade_catego</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -131,12 +131,6 @@
     <t>MAIN_WEDGE40_STABILITY</t>
   </si>
   <si>
-    <t>MAIN_C25-C40_MEAN</t>
-  </si>
-  <si>
-    <t>MAIN_C40-C100_MEAN</t>
-  </si>
-  <si>
     <t>W40稳定性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -145,6 +139,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>E,D,C,B,A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,40,60,75,85,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5,10,15,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D,C,B,A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,7,13,15,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A,B,C,D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5,9,12,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wid_min_val</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>final_col_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>selected_col_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冷轧基料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全硅钢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_C25_MINUS_C40_MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAIN_C40_MINUS_C100_MEAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>rate_bins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -153,55 +207,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>E,D,C,B,A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,40,60,75,85,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,5,10,15,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,75,80,90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D,C,B,A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,7,13,15,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,B,C,D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A,B,C,D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0,5,9,12,100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>wid_min_val</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>final_col_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>selected_col_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冷轧基料</t>
+    <t>0,75,80,90,100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>边降C40-C100均值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -535,20 +545,13 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A14"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.625" customWidth="1"/>
     <col min="10" max="10" width="29.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19.375" bestFit="1" customWidth="1"/>
@@ -563,7 +566,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -584,21 +587,21 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" t="s">
         <v>46</v>
       </c>
-      <c r="K1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>33</v>
-      </c>
       <c r="M1" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
         <v>1</v>
@@ -619,15 +622,15 @@
         <v>10</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
         <v>1</v>
@@ -648,15 +651,15 @@
         <v>17</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
         <v>1</v>
@@ -677,15 +680,15 @@
         <v>18</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -706,15 +709,15 @@
         <v>18</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
         <v>1</v>
@@ -735,15 +738,15 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
         <v>1</v>
@@ -764,15 +767,15 @@
         <v>19</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J8" t="s">
         <v>20</v>
@@ -781,15 +784,15 @@
         <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J9" t="s">
         <v>21</v>
@@ -798,15 +801,15 @@
         <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -815,15 +818,15 @@
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -832,65 +835,66 @@
         <v>26</v>
       </c>
       <c r="L11" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="M11" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J12" t="s">
         <v>28</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="L12" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J13" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="K13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="K14" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="L14" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>